--- a/lab6/report/inc/img/df.xlsx
+++ b/lab6/report/inc/img/df.xlsx
@@ -25,13 +25,13 @@
     <t>tmax</t>
   </si>
   <si>
-    <t>diff_rand</t>
+    <t>diff1</t>
   </si>
   <si>
-    <t>diff_one_way</t>
+    <t>diff2</t>
   </si>
   <si>
-    <t>diff_rand_2</t>
+    <t>diff3</t>
   </si>
 </sst>
 </file>
@@ -417,217 +417,217 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="C2">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D2">
         <v>100</v>
       </c>
       <c r="E2">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="B3">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="C3">
-        <v>0.25</v>
+        <v>0.9</v>
       </c>
       <c r="D3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="B4">
-        <v>0.9</v>
+        <v>0.25</v>
       </c>
       <c r="C4">
         <v>0.1</v>
       </c>
       <c r="D4">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E4">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0.25</v>
       </c>
       <c r="C5">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D5">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E5">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="C6">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="D6">
         <v>100</v>
       </c>
       <c r="E6">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="D7">
         <v>100</v>
       </c>
       <c r="E7">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>0.75</v>
+        <v>0.1</v>
       </c>
       <c r="C8">
-        <v>0.75</v>
+        <v>0.1</v>
       </c>
       <c r="D8">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E8">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="C9">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="D9">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E9">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="C10">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="D10">
         <v>200</v>
       </c>
       <c r="E10">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="C11">
         <v>0.75</v>
@@ -636,136 +636,136 @@
         <v>200</v>
       </c>
       <c r="E11">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="C12">
         <v>0.9</v>
       </c>
       <c r="D12">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E12">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="B13">
-        <v>0.9</v>
+        <v>0.25</v>
       </c>
       <c r="C13">
         <v>0.1</v>
       </c>
       <c r="D13">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E13">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="B14">
-        <v>0.9</v>
+        <v>0.25</v>
       </c>
       <c r="C14">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D14">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E14">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="B15">
-        <v>0.9</v>
+        <v>0.25</v>
       </c>
       <c r="C15">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="D15">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E15">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="B16">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="C16">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D16">
         <v>200</v>
       </c>
       <c r="E16">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="B17">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="C17">
         <v>0.9</v>
@@ -774,139 +774,139 @@
         <v>200</v>
       </c>
       <c r="E17">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="B18">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="C18">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="D18">
         <v>200</v>
       </c>
       <c r="E18">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="B19">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="C19">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="D19">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E19">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B20">
         <v>0.9</v>
       </c>
       <c r="C20">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D20">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E20">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>117</v>
+        <v>2</v>
       </c>
       <c r="B21">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="C21">
-        <v>0.75</v>
+        <v>0.1</v>
       </c>
       <c r="D21">
         <v>300</v>
       </c>
       <c r="E21">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="B22">
-        <v>0.75</v>
+        <v>0.1</v>
       </c>
       <c r="C22">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="D22">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E22">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="B23">
-        <v>0.75</v>
+        <v>0.1</v>
       </c>
       <c r="C23">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="D23">
         <v>300</v>
@@ -915,406 +915,406 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="B24">
-        <v>0.75</v>
+        <v>0.1</v>
       </c>
       <c r="C24">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="D24">
         <v>300</v>
       </c>
       <c r="E24">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="B25">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="C25">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="D25">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E25">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="C26">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="D26">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.9</v>
+        <v>0.25</v>
       </c>
       <c r="C27">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="D27">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E27">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>0.9</v>
+        <v>0.25</v>
       </c>
       <c r="C28">
         <v>0.5</v>
       </c>
       <c r="D28">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E28">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="B29">
-        <v>0.9</v>
+        <v>0.25</v>
       </c>
       <c r="C29">
         <v>0.9</v>
       </c>
       <c r="D29">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E29">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B30">
         <v>0.5</v>
       </c>
       <c r="C30">
-        <v>0.9</v>
+        <v>0.25</v>
       </c>
       <c r="D30">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E30">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="B31">
-        <v>0.75</v>
+        <v>0.1</v>
       </c>
       <c r="C31">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="D31">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E31">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B32">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C32">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="D32">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E32">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="B33">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="C33">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D33">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E33">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="B34">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C34">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="D34">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E34">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="B35">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="C35">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="D35">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E35">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B36">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="C36">
-        <v>0.75</v>
+        <v>0.1</v>
       </c>
       <c r="D36">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="B37">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="C37">
-        <v>0.9</v>
+        <v>0.25</v>
       </c>
       <c r="D37">
         <v>400</v>
       </c>
       <c r="E37">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="B38">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="C38">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="D38">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E38">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="C39">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="D39">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E39">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="B40">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="C40">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="D40">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E40">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B41">
         <v>0.5</v>
@@ -1323,326 +1323,326 @@
         <v>0.75</v>
       </c>
       <c r="D41">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E41">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="B42">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="C42">
         <v>0.9</v>
       </c>
       <c r="D42">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E42">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="B43">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="C43">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="D43">
         <v>400</v>
       </c>
       <c r="E43">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B44">
         <v>0.75</v>
       </c>
       <c r="C44">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="D44">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E44">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="B45">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C45">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="D45">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E45">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="B46">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C46">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="D46">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E46">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="B47">
-        <v>0.75</v>
+        <v>0.1</v>
       </c>
       <c r="C47">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="D47">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="B48">
-        <v>0.75</v>
+        <v>0.1</v>
       </c>
       <c r="C48">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="D48">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E48">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="B49">
-        <v>0.75</v>
+        <v>0.1</v>
       </c>
       <c r="C49">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D49">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E49">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="B50">
-        <v>0.75</v>
+        <v>0.1</v>
       </c>
       <c r="C50">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="D50">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E50">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B51">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C51">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="D51">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E51">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="B52">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="C52">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="D52">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E52">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="B53">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="C53">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D53">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E53">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="B54">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="C54">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="D54">
         <v>500</v>
       </c>
       <c r="E54">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="B55">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="C55">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D55">
         <v>500</v>
@@ -1651,44 +1651,44 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B56">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="C56">
-        <v>0.25</v>
+        <v>0.9</v>
       </c>
       <c r="D56">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B57">
         <v>0.5</v>
       </c>
       <c r="C57">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="D57">
         <v>500</v>
@@ -1700,35 +1700,35 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="C58">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D58">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E58">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B59">
         <v>0.5</v>
@@ -1737,188 +1737,188 @@
         <v>0.9</v>
       </c>
       <c r="D59">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E59">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="B60">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C60">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="D60">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E60">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>800</v>
+        <v>7</v>
       </c>
       <c r="G60">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B61">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C61">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D61">
         <v>100</v>
       </c>
       <c r="E61">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>400</v>
+        <v>7</v>
       </c>
       <c r="G61">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="B62">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C62">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D62">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E62">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>400</v>
+        <v>7</v>
       </c>
       <c r="G62">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="B63">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="C63">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="D63">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E63">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>400</v>
+        <v>7</v>
       </c>
       <c r="G63">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B64">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="C64">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="D64">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E64">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G64">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="B65">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="C65">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="D65">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>600</v>
+        <v>7</v>
       </c>
       <c r="G65">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B66">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="C66">
-        <v>0.25</v>
+        <v>0.9</v>
       </c>
       <c r="D66">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>400</v>
+        <v>7</v>
       </c>
       <c r="G66">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="B67">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C67">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D67">
         <v>500</v>
@@ -1927,76 +1927,76 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>400</v>
+        <v>7</v>
       </c>
       <c r="G67">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B68">
         <v>0.5</v>
       </c>
       <c r="C68">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="D68">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>400</v>
+        <v>8</v>
       </c>
       <c r="G68">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B69">
         <v>0.5</v>
       </c>
       <c r="C69">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D69">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69">
-        <v>400</v>
+        <v>9</v>
       </c>
       <c r="G69">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="B70">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="C70">
         <v>0.75</v>
       </c>
       <c r="D70">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E70">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>400</v>
+        <v>9</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -2004,22 +2004,22 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B71">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="C71">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="D71">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E71">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>600</v>
+        <v>13</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -2027,22 +2027,22 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B72">
         <v>0.5</v>
       </c>
       <c r="C72">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D72">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E72">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>600</v>
+        <v>19</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -2050,22 +2050,22 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="B73">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C73">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="D73">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E73">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>400</v>
+        <v>19</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -2073,22 +2073,22 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="B74">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C74">
         <v>0.9</v>
       </c>
       <c r="D74">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E74">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>400</v>
+        <v>19</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -2096,22 +2096,22 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="B75">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C75">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="D75">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E75">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>400</v>
+        <v>19</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -2119,22 +2119,22 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="B76">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="C76">
-        <v>0.75</v>
+        <v>0.1</v>
       </c>
       <c r="D76">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E76">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>400</v>
+        <v>19</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -2142,22 +2142,22 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="B77">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="C77">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="D77">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E77">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>600</v>
+        <v>19</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -2165,22 +2165,22 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1">
+        <v>53</v>
+      </c>
+      <c r="B78">
+        <v>0.5</v>
+      </c>
+      <c r="C78">
+        <v>0.1</v>
+      </c>
+      <c r="D78">
+        <v>400</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
         <v>19</v>
-      </c>
-      <c r="B78">
-        <v>0.1</v>
-      </c>
-      <c r="C78">
-        <v>0.75</v>
-      </c>
-      <c r="D78">
-        <v>500</v>
-      </c>
-      <c r="E78">
-        <v>20</v>
-      </c>
-      <c r="F78">
-        <v>400</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -2188,22 +2188,22 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="B79">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="C79">
         <v>0.9</v>
       </c>
       <c r="D79">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E79">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>400</v>
+        <v>19</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -2211,22 +2211,22 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="B80">
-        <v>0.25</v>
+        <v>0.9</v>
       </c>
       <c r="C80">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="D80">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E80">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>400</v>
+        <v>19</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -2234,22 +2234,22 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="B81">
-        <v>0.25</v>
+        <v>0.9</v>
       </c>
       <c r="C81">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="D81">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E81">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>400</v>
+        <v>19</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -2257,22 +2257,22 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="B82">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="C82">
         <v>0.75</v>
       </c>
       <c r="D82">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E82">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>400</v>
+        <v>19</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -2280,22 +2280,22 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="B83">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="C83">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="D83">
         <v>500</v>
       </c>
       <c r="E83">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>400</v>
+        <v>19</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -2303,22 +2303,22 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="B84">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C84">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D84">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E84">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>400</v>
+        <v>21</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -2326,22 +2326,22 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="B85">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C85">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="D85">
         <v>400</v>
       </c>
       <c r="E85">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -2349,22 +2349,22 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="B86">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="C86">
         <v>0.25</v>
       </c>
       <c r="D86">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E86">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -2372,22 +2372,22 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="B87">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="C87">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D87">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E87">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -2395,22 +2395,22 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B88">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C88">
-        <v>0.9</v>
+        <v>0.25</v>
       </c>
       <c r="D88">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E88">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -2418,22 +2418,22 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="B89">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="C89">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="D89">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E89">
         <v>0</v>
       </c>
       <c r="F89">
-        <v>400</v>
+        <v>38</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -2441,22 +2441,22 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="B90">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="C90">
         <v>0.1</v>
       </c>
       <c r="D90">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
       <c r="F90">
-        <v>400</v>
+        <v>38</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -2464,22 +2464,22 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="B91">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="C91">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="D91">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
       <c r="F91">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -2487,13 +2487,13 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="B92">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="C92">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="D92">
         <v>200</v>
@@ -2502,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -2510,22 +2510,22 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="B93">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="C93">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="D93">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="F93">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -2533,22 +2533,22 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="B94">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="C94">
-        <v>0.25</v>
+        <v>0.9</v>
       </c>
       <c r="D94">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E94">
         <v>0</v>
       </c>
       <c r="F94">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -2556,22 +2556,22 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="B95">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="C95">
         <v>0.5</v>
       </c>
       <c r="D95">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E95">
         <v>0</v>
       </c>
       <c r="F95">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -2579,22 +2579,22 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="B96">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="C96">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="D96">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E96">
         <v>0</v>
       </c>
       <c r="F96">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -2602,13 +2602,13 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="C97">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="D97">
         <v>400</v>
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -2625,22 +2625,22 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="B98">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="C98">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D98">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E98">
         <v>0</v>
       </c>
       <c r="F98">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -2648,22 +2648,22 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="B99">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="C99">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="D99">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E99">
         <v>0</v>
       </c>
       <c r="F99">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -2671,22 +2671,22 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="C100">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="D100">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E100">
         <v>0</v>
       </c>
       <c r="F100">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -2694,13 +2694,13 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="1">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="B101">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="C101">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="D101">
         <v>200</v>
@@ -2709,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>400</v>
+        <v>72</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -2717,22 +2717,22 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="1">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="B102">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="C102">
         <v>0.1</v>
       </c>
       <c r="D102">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E102">
         <v>0</v>
       </c>
       <c r="F102">
-        <v>400</v>
+        <v>74</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -2740,22 +2740,22 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="1">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="B103">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C103">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="D103">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
       <c r="F103">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -2763,22 +2763,22 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="1">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="B104">
-        <v>0.25</v>
+        <v>0.9</v>
       </c>
       <c r="C104">
         <v>0.25</v>
       </c>
       <c r="D104">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E104">
         <v>0</v>
       </c>
       <c r="F104">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -2786,22 +2786,22 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="1">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="B105">
-        <v>0.25</v>
+        <v>0.9</v>
       </c>
       <c r="C105">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D105">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E105">
         <v>0</v>
       </c>
       <c r="F105">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -2809,22 +2809,22 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="1">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="B106">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="C106">
-        <v>0.75</v>
+        <v>0.1</v>
       </c>
       <c r="D106">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E106">
         <v>0</v>
       </c>
       <c r="F106">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -2832,22 +2832,22 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="1">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="B107">
-        <v>0.25</v>
+        <v>0.9</v>
       </c>
       <c r="C107">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="D107">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E107">
         <v>0</v>
       </c>
       <c r="F107">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -2855,10 +2855,10 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="1">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="B108">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C108">
         <v>0.1</v>
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -2878,22 +2878,22 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="1">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="B109">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="C109">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="D109">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E109">
         <v>0</v>
       </c>
       <c r="F109">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -2901,22 +2901,22 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="1">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="B110">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="C110">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="D110">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E110">
         <v>0</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -2924,22 +2924,22 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="1">
-        <v>5</v>
+        <v>117</v>
       </c>
       <c r="B111">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="C111">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="D111">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E111">
         <v>0</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -2947,22 +2947,22 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="1">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="B112">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="C112">
         <v>0.25</v>
       </c>
       <c r="D112">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E112">
         <v>0</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -2970,22 +2970,22 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="1">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="B113">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="C113">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D113">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E113">
         <v>0</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -2993,10 +2993,10 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="1">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B114">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="C114">
         <v>0.5</v>
@@ -3008,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -3016,10 +3016,10 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="1">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="B115">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="C115">
         <v>0.75</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -3039,22 +3039,22 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="1">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="B116">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="C116">
         <v>0.75</v>
       </c>
       <c r="D116">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E116">
         <v>0</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -3062,22 +3062,22 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="1">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B117">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="C117">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="D117">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E117">
         <v>0</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -3085,22 +3085,22 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="1">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="B118">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="C118">
         <v>0.9</v>
       </c>
       <c r="D118">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E118">
         <v>0</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -3108,13 +3108,13 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="1">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="B119">
-        <v>0.25</v>
+        <v>0.9</v>
       </c>
       <c r="C119">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="D119">
         <v>300</v>
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -3131,22 +3131,22 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="1">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="B120">
-        <v>0.25</v>
+        <v>0.9</v>
       </c>
       <c r="C120">
-        <v>0.25</v>
+        <v>0.9</v>
       </c>
       <c r="D120">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E120">
         <v>0</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -3154,22 +3154,22 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="1">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="B121">
-        <v>0.25</v>
+        <v>0.9</v>
       </c>
       <c r="C121">
-        <v>0.25</v>
+        <v>0.9</v>
       </c>
       <c r="D121">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E121">
         <v>0</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -3177,13 +3177,13 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="1">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="B122">
-        <v>0.25</v>
+        <v>0.9</v>
       </c>
       <c r="C122">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D122">
         <v>300</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -3200,22 +3200,22 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="1">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="B123">
-        <v>0.25</v>
+        <v>0.9</v>
       </c>
       <c r="C123">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="D123">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E123">
         <v>0</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -3223,22 +3223,22 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="1">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="B124">
-        <v>0.25</v>
+        <v>0.9</v>
       </c>
       <c r="C124">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D124">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E124">
         <v>0</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -3246,22 +3246,22 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="1">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="B125">
-        <v>0.25</v>
+        <v>0.9</v>
       </c>
       <c r="C125">
         <v>0.9</v>
       </c>
       <c r="D125">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E125">
         <v>0</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -3269,22 +3269,22 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="1">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="B126">
-        <v>0.25</v>
+        <v>0.9</v>
       </c>
       <c r="C126">
-        <v>0.9</v>
+        <v>0.25</v>
       </c>
       <c r="D126">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E126">
         <v>0</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G126">
         <v>0</v>
